--- a/export/questions.xlsx
+++ b/export/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,68 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>421</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Когда можно будет сдать кровь?</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>22-го сентября)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>421</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Когда можно будет сдать кровь?</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>22-го сентября)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
